--- a/September2018.xlsx
+++ b/September2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Perso\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0170CAEB-2A23-47E5-8DC8-1B46682D3AC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B97258F-20BC-4EB9-A51D-381E0DFB4B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$27</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Period:</t>
   </si>
@@ -67,17 +67,25 @@
   </si>
   <si>
     <t>September 2018</t>
+  </si>
+  <si>
+    <t>OT (1.25)</t>
+  </si>
+  <si>
+    <t>OT (1.5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +95,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -191,7 +206,143 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -201,10 +352,27 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -217,7 +385,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -229,10 +397,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -240,37 +423,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -283,29 +441,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,402 +813,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="L4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>43339</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="D5" s="9">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="17">
         <f>A11+1</f>
         <v>43346</v>
       </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9">
-        <f>D11+1</f>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="18">
+        <v>8</v>
+      </c>
+      <c r="K5" s="17">
+        <f>F11+1</f>
         <v>43353</v>
       </c>
-      <c r="H5" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" ref="A6:A11" si="0">A5+1</f>
         <v>43340</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D11" si="1">D5+1</f>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F11" si="1">F5+1</f>
         <v>43347</v>
       </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" ref="G6:G11" si="2">G5+1</f>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="11">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K11" si="2">K5+1</f>
         <v>43354</v>
       </c>
-      <c r="H6" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>43341</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="D7" s="3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>43348</v>
       </c>
-      <c r="E7" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>43355</v>
       </c>
-      <c r="H7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>43342</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>43349</v>
       </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="4">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>43356</v>
       </c>
-      <c r="H8" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>43343</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>43350</v>
       </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>43357</v>
       </c>
-      <c r="H9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>43344</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="D10" s="7">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>43351</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="7">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="6">
         <f t="shared" si="2"/>
         <v>43358</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>43345</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="D11" s="13">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="20"/>
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>43352</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="G11" s="13">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="19">
         <f t="shared" si="2"/>
         <v>43359</v>
       </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16">
-        <f>SUM(B5:B11)</f>
+      <c r="B12" s="26">
+        <f t="shared" ref="B12:C12" si="3">SUM(B5:B11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <f>SUM(D5:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="16">
-        <f>SUM(E5:E11)</f>
+      <c r="G12" s="26">
+        <f t="shared" ref="G12:H12" si="4">SUM(G5:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <f>SUM(I5:I11)</f>
         <v>40</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="K12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="16">
-        <f>SUM(H5:H11)</f>
+      <c r="L12" s="26">
+        <f t="shared" ref="L12:M12" si="5">SUM(L5:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <f>SUM(N5:N11)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="L15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <f>G11+1</f>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <f>K11+1</f>
         <v>43360</v>
       </c>
-      <c r="B16" s="10">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="18">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17">
         <f>A22+1</f>
         <v>43367</v>
       </c>
-      <c r="E16" s="10">
-        <v>8</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="18">
+        <v>8</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" ref="A17:A22" si="3">A16+1</f>
+        <f t="shared" ref="A17:A22" si="6">A16+1</f>
         <v>43361</v>
       </c>
-      <c r="B17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3">
-        <f>D16+1</f>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F16+1</f>
         <v>43368</v>
       </c>
-      <c r="E17" s="4">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43362</v>
       </c>
-      <c r="B18" s="4">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D22" si="4">D17+1</f>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18:F22" si="7">F17+1</f>
         <v>43369</v>
       </c>
-      <c r="E18" s="4">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43363</v>
       </c>
-      <c r="B19" s="4">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="4"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="7"/>
         <v>43370</v>
       </c>
-      <c r="E19" s="4">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43364</v>
       </c>
-      <c r="B20" s="4">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="4"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="7"/>
         <v>43371</v>
       </c>
-      <c r="E20" s="4">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <f t="shared" si="3"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="6"/>
         <v>43365</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="D21" s="7">
-        <f t="shared" si="4"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
         <v>43372</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <f t="shared" si="3"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <f t="shared" si="6"/>
         <v>43366</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="D22" s="13">
-        <f t="shared" si="4"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="20"/>
+      <c r="F22" s="19">
+        <f t="shared" si="7"/>
         <v>43373</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="16">
-        <f>SUM(B16:B22)</f>
+      <c r="B23" s="26">
+        <f t="shared" ref="B23:C23" si="8">SUM(B16:B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="27">
+        <f>SUM(D16:D22)</f>
         <v>40</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="16">
-        <f>SUM(E16:E22)</f>
-        <v>44</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="26">
+        <f>SUM(G16:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <f>SUM(H16:H22)</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="29">
+        <f>SUM(I16:I22)</f>
+        <v>40</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="16">
-        <f>SUM(H16:H22)</f>
+      <c r="L23" s="26">
+        <f t="shared" ref="L23:M23" si="9">SUM(L16:L22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="5" t="s">
+      <c r="M23" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="27">
+        <f>SUM(N16:N22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="6">
-        <f>(B12+E12+H12+B23+E23+H23)/8</f>
-        <v>20.5</v>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="30">
+        <f>((D12+I12+N12+D23+I23+N23)/8)+(1.25*(C12+H12+M12+C23+H23+M23)/8)+(1.5*(B12+G12+L12+B23+G23+L23)/8)</f>
+        <v>20.625</v>
       </c>
     </row>
   </sheetData>
